--- a/geonode/static/geonode/files/FieldDescription.xlsx
+++ b/geonode/static/geonode/files/FieldDescription.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6520" yWindow="440" windowWidth="28560" windowHeight="16120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LULC CLASS" sheetId="1" r:id="rId1"/>
@@ -997,16 +997,16 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="133.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="133.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1350,7 +1350,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1360,15 +1359,15 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="226" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.6640625" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2290,7 +2289,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -2325,7 +2324,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>